--- a/MathEconomic.xlsx
+++ b/MathEconomic.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="A">Лист1!$B$1</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>A</t>
   </si>
@@ -51,7 +52,16 @@
     <t>PV</t>
   </si>
   <si>
-    <t>FV</t>
+    <t>Fvpost</t>
+  </si>
+  <si>
+    <t>Fvpre</t>
+  </si>
+  <si>
+    <t>FVpst</t>
+  </si>
+  <si>
+    <t>при m=1</t>
   </si>
 </sst>
 </file>
@@ -370,23 +380,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -394,7 +404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -402,41 +412,74 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <f>A/Q*((1-(1+I/M)^(-N*M))/((1+I/M)^(M/Q)-1))</f>
-        <v>7698.351745998425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1342016.2797882883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <f>A/Q*(((1+I/M)^(N*M) - 1)/((1+I/M)^(M/Q)-1))</f>
-        <v>12614.645734131291</v>
+        <v>2897312.4931819667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>B7*(1+I/M)^M</f>
+        <v>3129097.4926365241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>A*((1+I)^N-1)/I</f>
+        <v>2897312.493181969</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MathEconomic.xlsx
+++ b/MathEconomic.xlsx
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="A">Лист1!$B$1</definedName>
+    <definedName name="G">Лист2!$B$4</definedName>
     <definedName name="I">Лист1!$B$5</definedName>
     <definedName name="M">Лист1!$B$4</definedName>
     <definedName name="N">Лист1!$B$3</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>A</t>
   </si>
@@ -62,6 +63,12 @@
   </si>
   <si>
     <t>при m=1</t>
+  </si>
+  <si>
+    <t>Рента с арифметической прогрессией</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -383,7 +390,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,12 +481,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>